--- a/Result/Facade/Comparison_2_3_vs_3_5.xlsx
+++ b/Result/Facade/Comparison_2_3_vs_3_5.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="D607" sqref="D607"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2933,9 +2933,6 @@
       <c r="A451">
         <v>449</v>
       </c>
-      <c r="C451">
-        <v>1</v>
-      </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452">
@@ -3811,7 +3808,7 @@
       </c>
       <c r="C602">
         <f>SUM(C2:C600)</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D602">
         <v>516</v>
@@ -3831,12 +3828,6 @@
       </c>
       <c r="C604">
         <v>0.60370000000000001</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1048576">
-        <f>SUM(B11:B1048575)</f>
-        <v>32.427299999999995</v>
       </c>
     </row>
   </sheetData>
